--- a/results.xlsx
+++ b/results.xlsx
@@ -807,62 +807,62 @@
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
+          <t>Vabc</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Vabc-</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>apol</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>apol-</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>bpol</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>bpol-</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
           <t>Radius-r</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>Radius+</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>Vabc</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>Vabc-</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>Vabc-r</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>Vabc+</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>apol</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>apol-</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>apol-r</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>apol+</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>bpol</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>bpol-</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
@@ -938,13 +938,13 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0.105</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.2</v>
+        <v>0.127</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>0.316</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -982,13 +982,13 @@
         <v>7</v>
       </c>
       <c r="AH2" t="n">
-        <v>1</v>
+        <v>0.105</v>
       </c>
       <c r="AI2" t="n">
-        <v>4.2</v>
+        <v>0.443</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.238</v>
+        <v>0.237</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -1044,10 +1044,10 @@
       </c>
       <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="n">
-        <v>28.57</v>
+        <v>28.67</v>
       </c>
       <c r="BO2" t="n">
-        <v>71.43000000000001</v>
+        <v>71.33</v>
       </c>
       <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="inlineStr"/>
@@ -1058,52 +1058,52 @@
         <v>1.375</v>
       </c>
       <c r="BV2" t="n">
-        <v>13.8</v>
+        <v>1.456</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.912604515900127e+51</v>
+        <v>1.968425808447215e+51</v>
       </c>
       <c r="BX2" t="n">
-        <v>3.286</v>
+        <v>58.38</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.912604515900127e+51</v>
+        <v>9.179521368933487e+211</v>
       </c>
       <c r="BZ2" t="n">
-        <v>553.454</v>
+        <v>6.992</v>
       </c>
       <c r="CA2" t="n">
-        <v>9.113214622327625e+211</v>
+        <v>5.065450977676164e+118</v>
       </c>
       <c r="CB2" t="n">
-        <v>131.775</v>
+        <v>6.407</v>
       </c>
       <c r="CC2" t="n">
-        <v>-9.113214622327625e+211</v>
+        <v>1.44450252096676e+115</v>
       </c>
       <c r="CD2" t="n">
-        <v>66.25700000000001</v>
+        <v>3.287</v>
       </c>
       <c r="CE2" t="n">
-        <v>4.825031082481979e+118</v>
+        <v>-1.968425808447215e+51</v>
       </c>
       <c r="CF2" t="n">
-        <v>15.775</v>
+        <v>131.783</v>
       </c>
       <c r="CG2" t="n">
-        <v>-4.825031082481979e+118</v>
+        <v>-9.179521368933487e+211</v>
       </c>
       <c r="CH2" t="n">
-        <v>60.713</v>
+        <v>15.783</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.383842749961713e+115</v>
+        <v>-5.065450977676164e+118</v>
       </c>
       <c r="CJ2" t="n">
-        <v>14.455</v>
+        <v>14.463</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.383842749961713e+115</v>
+        <v>-1.44450252096676e+115</v>
       </c>
       <c r="CL2" t="n">
         <v>4.278</v>
@@ -1162,13 +1162,13 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.134</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.2</v>
+        <v>0.161</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0.403</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -1206,10 +1206,10 @@
         <v>4</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>0.134</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.2</v>
+        <v>0.5640000000000001</v>
       </c>
       <c r="AJ3" t="n">
         <v>0.238</v>
@@ -1268,10 +1268,10 @@
       </c>
       <c r="BM3" t="inlineStr"/>
       <c r="BN3" t="n">
-        <v>28.57</v>
+        <v>28.55</v>
       </c>
       <c r="BO3" t="n">
-        <v>71.43000000000001</v>
+        <v>71.45</v>
       </c>
       <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="inlineStr"/>
@@ -1282,52 +1282,52 @@
         <v>1.247</v>
       </c>
       <c r="BV3" t="n">
-        <v>10.8</v>
+        <v>1.45</v>
       </c>
       <c r="BW3" t="n">
-        <v>5.051571943635784e+38</v>
+        <v>4.982025459914683e+38</v>
       </c>
       <c r="BX3" t="n">
+        <v>60.014</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>9.389964639845333e+201</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>7.819</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>5.768358346770525e+111</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>7.211</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>5.487380097143282e+108</v>
+      </c>
+      <c r="CD3" t="n">
         <v>2.571</v>
       </c>
-      <c r="BY3" t="n">
-        <v>-5.051571943635784e+38</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>446.958</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>9.464310758640273e+201</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>106.419</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>-9.464310758640273e+201</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>58.235</v>
-      </c>
       <c r="CE3" t="n">
-        <v>5.850760952193402e+111</v>
+        <v>-4.982025459914683e+38</v>
       </c>
       <c r="CF3" t="n">
-        <v>13.865</v>
+        <v>106.408</v>
       </c>
       <c r="CG3" t="n">
-        <v>-5.850760952193402e+111</v>
+        <v>-9.389964639845333e+201</v>
       </c>
       <c r="CH3" t="n">
-        <v>53.706</v>
+        <v>13.863</v>
       </c>
       <c r="CI3" t="n">
-        <v>5.557535652339883e+108</v>
+        <v>-5.768358346770525e+111</v>
       </c>
       <c r="CJ3" t="n">
-        <v>12.787</v>
+        <v>12.785</v>
       </c>
       <c r="CK3" t="n">
-        <v>-5.557535652339883e+108</v>
+        <v>-5.487380097143282e+108</v>
       </c>
       <c r="CL3" t="n">
         <v>3.356</v>
@@ -1386,13 +1386,13 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0.134</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0.134</v>
       </c>
       <c r="R4" t="n">
-        <v>3.2</v>
+        <v>0.43</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1430,10 +1430,10 @@
         <v>4</v>
       </c>
       <c r="AH4" t="n">
-        <v>1</v>
+        <v>0.134</v>
       </c>
       <c r="AI4" t="n">
-        <v>4.2</v>
+        <v>0.5640000000000001</v>
       </c>
       <c r="AJ4" t="n">
         <v>0.238</v>
@@ -1492,10 +1492,10 @@
       </c>
       <c r="BM4" t="inlineStr"/>
       <c r="BN4" t="n">
-        <v>23.81</v>
+        <v>23.76</v>
       </c>
       <c r="BO4" t="n">
-        <v>76.19</v>
+        <v>76.23999999999999</v>
       </c>
       <c r="BP4" t="inlineStr"/>
       <c r="BQ4" t="inlineStr"/>
@@ -1503,55 +1503,55 @@
       <c r="BS4" t="inlineStr"/>
       <c r="BT4" t="inlineStr"/>
       <c r="BU4" t="n">
-        <v>1.271</v>
+        <v>1.272</v>
       </c>
       <c r="BV4" t="n">
-        <v>10.4</v>
+        <v>1.396</v>
       </c>
       <c r="BW4" t="n">
-        <v>1.8643341856616e+37</v>
+        <v>1.800828119187061e+37</v>
       </c>
       <c r="BX4" t="n">
-        <v>2.476</v>
+        <v>58.793</v>
       </c>
       <c r="BY4" t="n">
-        <v>-1.8643341856616e+37</v>
+        <v>1.420260721053181e+201</v>
       </c>
       <c r="BZ4" t="n">
-        <v>437.919</v>
+        <v>7.52</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.448540571887735e+201</v>
+        <v>1.930647501867687e+110</v>
       </c>
       <c r="CB4" t="n">
-        <v>104.266</v>
+        <v>6.966</v>
       </c>
       <c r="CC4" t="n">
-        <v>-1.448540571887735e+201</v>
+        <v>2.618136961177707e+107</v>
       </c>
       <c r="CD4" t="n">
-        <v>56.024</v>
+        <v>2.475</v>
       </c>
       <c r="CE4" t="n">
-        <v>2.000337573738728e+110</v>
+        <v>-1.800828119187061e+37</v>
       </c>
       <c r="CF4" t="n">
-        <v>13.339</v>
+        <v>104.243</v>
       </c>
       <c r="CG4" t="n">
-        <v>-2.000337573738728e+110</v>
+        <v>-1.420260721053181e+201</v>
       </c>
       <c r="CH4" t="n">
-        <v>51.896</v>
+        <v>13.333</v>
       </c>
       <c r="CI4" t="n">
-        <v>2.70262254994245e+107</v>
+        <v>-1.930647501867687e+110</v>
       </c>
       <c r="CJ4" t="n">
-        <v>12.356</v>
+        <v>12.351</v>
       </c>
       <c r="CK4" t="n">
-        <v>-2.70262254994245e+107</v>
+        <v>-2.618136961177707e+107</v>
       </c>
       <c r="CL4" t="n">
         <v>3.381</v>
@@ -1614,16 +1614,16 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0.116</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.2</v>
+        <v>0.139</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>0.232</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0.116</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -1660,10 +1660,10 @@
         <v>7</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0.116</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.2</v>
+        <v>0.487</v>
       </c>
       <c r="AJ5" t="n">
         <v>0.238</v>
@@ -1730,13 +1730,13 @@
       </c>
       <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="n">
-        <v>28.57</v>
+        <v>28.54</v>
       </c>
       <c r="BO5" t="n">
-        <v>47.62</v>
+        <v>47.64</v>
       </c>
       <c r="BP5" t="n">
-        <v>23.81</v>
+        <v>23.82</v>
       </c>
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="inlineStr"/>
@@ -1746,52 +1746,52 @@
         <v>1.328</v>
       </c>
       <c r="BV5" t="n">
-        <v>11.6</v>
+        <v>1.345</v>
       </c>
       <c r="BW5" t="n">
-        <v>3.306683237681096e+43</v>
+        <v>3.293302935476275e+43</v>
       </c>
       <c r="BX5" t="n">
+        <v>58.833</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>6.576009515506379e+207</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>8.041383787163194e+115</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>6.527</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>6.780835402217619e+111</v>
+      </c>
+      <c r="CD5" t="n">
         <v>2.762</v>
       </c>
-      <c r="BY5" t="n">
-        <v>-3.306683237681096e+43</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>507.407</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>6.598597201405776e+207</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>120.811</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>-6.598597201405776e+207</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>62.621</v>
-      </c>
       <c r="CE5" t="n">
-        <v>8.168554385501433e+115</v>
+        <v>-3.293302935476275e+43</v>
       </c>
       <c r="CF5" t="n">
-        <v>14.91</v>
+        <v>120.807</v>
       </c>
       <c r="CG5" t="n">
-        <v>-8.168554385501433e+115</v>
+        <v>-6.576009515506379e+207</v>
       </c>
       <c r="CH5" t="n">
-        <v>56.294</v>
+        <v>14.908</v>
       </c>
       <c r="CI5" t="n">
-        <v>6.863362765771113e+111</v>
+        <v>-8.041383787163194e+115</v>
       </c>
       <c r="CJ5" t="n">
-        <v>13.403</v>
+        <v>13.402</v>
       </c>
       <c r="CK5" t="n">
-        <v>-6.863362765771113e+111</v>
+        <v>-6.780835402217619e+111</v>
       </c>
       <c r="CL5" t="n">
         <v>4.149</v>
@@ -1854,16 +1854,16 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0.121</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8</v>
+        <v>0.097</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>0.266</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8</v>
+        <v>0.097</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1900,10 +1900,10 @@
         <v>7</v>
       </c>
       <c r="AH6" t="n">
-        <v>1</v>
+        <v>0.121</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.8</v>
+        <v>0.46</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.263</v>
@@ -1970,13 +1970,13 @@
       </c>
       <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="n">
-        <v>21.05</v>
+        <v>21.09</v>
       </c>
       <c r="BO6" t="n">
-        <v>57.89</v>
+        <v>57.83</v>
       </c>
       <c r="BP6" t="n">
-        <v>21.05</v>
+        <v>21.09</v>
       </c>
       <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="inlineStr"/>
@@ -1986,52 +1986,52 @@
         <v>1.384</v>
       </c>
       <c r="BV6" t="n">
-        <v>10.6</v>
+        <v>1.283</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.001459190092762e+44</v>
+        <v>1.00723783538339e+44</v>
       </c>
       <c r="BX6" t="n">
+        <v>55.986</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>1.577276675444016e+208</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>6.631</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>5.35964619163306e+114</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>6.023</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>1.010209866869558e+111</v>
+      </c>
+      <c r="CD6" t="n">
         <v>2.789</v>
       </c>
-      <c r="BY6" t="n">
-        <v>-1.001459190092762e+44</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>462.542</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>1.449320806790047e+208</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>121.722</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>-1.449320806790047e+208</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>54.772</v>
-      </c>
       <c r="CE6" t="n">
-        <v>5.04294551124677e+114</v>
+        <v>-1.00723783538339e+44</v>
       </c>
       <c r="CF6" t="n">
-        <v>14.414</v>
+        <v>121.709</v>
       </c>
       <c r="CG6" t="n">
-        <v>-5.04294551124677e+114</v>
+        <v>-1.577276675444016e+208</v>
       </c>
       <c r="CH6" t="n">
-        <v>49.755</v>
+        <v>14.415</v>
       </c>
       <c r="CI6" t="n">
-        <v>9.55473685585649e+110</v>
+        <v>-5.35964619163306e+114</v>
       </c>
       <c r="CJ6" t="n">
         <v>13.093</v>
       </c>
       <c r="CK6" t="n">
-        <v>-9.55473685585649e+110</v>
+        <v>-1.010209866869558e+111</v>
       </c>
       <c r="CL6" t="n">
         <v>4.218</v>
@@ -2177,25 +2177,25 @@
         <v>0</v>
       </c>
       <c r="BY7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
         <v>-1</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>1</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="CI7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CJ7" t="n">
         <v>0</v>
@@ -2276,16 +2276,16 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0.117</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.2</v>
+        <v>0.14</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0.117</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>0.233</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
@@ -2322,13 +2322,13 @@
         <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>0.117</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.2</v>
+        <v>0.49</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.238</v>
+        <v>0.239</v>
       </c>
       <c r="AK8" t="n">
         <v>4</v>
@@ -2395,10 +2395,10 @@
         <v>28.57</v>
       </c>
       <c r="BO8" t="n">
-        <v>23.81</v>
+        <v>23.88</v>
       </c>
       <c r="BP8" t="n">
-        <v>47.62</v>
+        <v>47.55</v>
       </c>
       <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="inlineStr"/>
@@ -2408,55 +2408,55 @@
         <v>1.292</v>
       </c>
       <c r="BV8" t="n">
-        <v>12.6</v>
+        <v>1.47</v>
       </c>
       <c r="BW8" t="n">
-        <v>5.153775207320093e+47</v>
+        <v>5.153775207320094e+47</v>
       </c>
       <c r="BX8" t="n">
-        <v>3</v>
+        <v>60.512</v>
       </c>
       <c r="BY8" t="n">
-        <v>-5.153775207320093e+47</v>
+        <v>1.279988291140835e+209</v>
       </c>
       <c r="BZ8" t="n">
-        <v>518.636</v>
+        <v>7.669</v>
       </c>
       <c r="CA8" t="n">
-        <v>1.271167221483765e+209</v>
+        <v>3.578478026029989e+118</v>
       </c>
       <c r="CB8" t="n">
-        <v>123.485</v>
+        <v>6.789</v>
       </c>
       <c r="CC8" t="n">
-        <v>-1.271167221483765e+209</v>
+        <v>4.01505170906913e+113</v>
       </c>
       <c r="CD8" t="n">
-        <v>65.73399999999999</v>
+        <v>3</v>
       </c>
       <c r="CE8" t="n">
-        <v>3.582557539622075e+118</v>
+        <v>-5.153775207320094e+47</v>
       </c>
       <c r="CF8" t="n">
+        <v>123.494</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>-1.279988291140835e+209</v>
+      </c>
+      <c r="CH8" t="n">
         <v>15.651</v>
       </c>
-      <c r="CG8" t="n">
-        <v>-3.582557539622075e+118</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>58.191</v>
-      </c>
       <c r="CI8" t="n">
-        <v>4.010088343423486e+113</v>
+        <v>-3.578478026029989e+118</v>
       </c>
       <c r="CJ8" t="n">
         <v>13.855</v>
       </c>
       <c r="CK8" t="n">
-        <v>-4.010088343423486e+113</v>
+        <v>-4.01505170906913e+113</v>
       </c>
       <c r="CL8" t="n">
-        <v>4.011</v>
+        <v>4.012</v>
       </c>
       <c r="CM8" t="n">
         <v>0</v>
@@ -2512,13 +2512,13 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0.119</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.2</v>
+        <v>0.143</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>0.357</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -2556,10 +2556,10 @@
         <v>5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>0.119</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>0.238</v>
@@ -2618,10 +2618,10 @@
       </c>
       <c r="BM9" t="inlineStr"/>
       <c r="BN9" t="n">
-        <v>28.57</v>
+        <v>28.6</v>
       </c>
       <c r="BO9" t="n">
-        <v>71.43000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="BP9" t="inlineStr"/>
       <c r="BQ9" t="inlineStr"/>
@@ -2632,52 +2632,52 @@
         <v>1.263</v>
       </c>
       <c r="BV9" t="n">
-        <v>13.8</v>
+        <v>1.643</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.912604515900127e+51</v>
+        <v>1.929182612242941e+51</v>
       </c>
       <c r="BX9" t="n">
+        <v>61.557</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>7.892935625630985e+208</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>7.967</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>1.56513399270073e+119</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>3.969443980206752e+114</v>
+      </c>
+      <c r="CD9" t="n">
         <v>3.286</v>
       </c>
-      <c r="BY9" t="n">
-        <v>-1.912604515900127e+51</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>517.049</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>7.852481025416099e+208</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>123.107</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>-7.852481025416099e+208</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>66.916</v>
-      </c>
       <c r="CE9" t="n">
-        <v>1.543221229203668e+119</v>
+        <v>-1.929182612242941e+51</v>
       </c>
       <c r="CF9" t="n">
-        <v>15.932</v>
+        <v>123.114</v>
       </c>
       <c r="CG9" t="n">
-        <v>-1.543221229203668e+119</v>
+        <v>-7.892935625630985e+208</v>
       </c>
       <c r="CH9" t="n">
-        <v>60.055</v>
+        <v>15.934</v>
       </c>
       <c r="CI9" t="n">
-        <v>3.916606850481145e+114</v>
+        <v>-1.56513399270073e+119</v>
       </c>
       <c r="CJ9" t="n">
-        <v>14.299</v>
+        <v>14.3</v>
       </c>
       <c r="CK9" t="n">
-        <v>-3.916606850481145e+114</v>
+        <v>-3.969443980206752e+114</v>
       </c>
       <c r="CL9" t="n">
         <v>3.689</v>
@@ -2736,13 +2736,13 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0.304</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.2</v>
+        <v>0.365</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>0.912</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -2772,10 +2772,10 @@
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>1</v>
+        <v>0.304</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.2</v>
+        <v>1.277</v>
       </c>
       <c r="AJ10" t="n">
         <v>0.238</v>
@@ -2834,10 +2834,10 @@
       </c>
       <c r="BM10" t="inlineStr"/>
       <c r="BN10" t="n">
-        <v>28.57</v>
+        <v>28.58</v>
       </c>
       <c r="BO10" t="n">
-        <v>71.43000000000001</v>
+        <v>71.42</v>
       </c>
       <c r="BP10" t="inlineStr"/>
       <c r="BQ10" t="inlineStr"/>
@@ -2848,52 +2848,52 @@
         <v>0.91</v>
       </c>
       <c r="BV10" t="n">
-        <v>3.6</v>
+        <v>1.095</v>
       </c>
       <c r="BW10" t="n">
-        <v>42791178490937.92</v>
+        <v>43263879457384.93</v>
       </c>
       <c r="BX10" t="n">
+        <v>47.418</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>2.559616185890879e+60</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>5.818766679767616e+37</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>6.394</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>3.451491494906108e+35</v>
+      </c>
+      <c r="CD10" t="n">
         <v>0.857</v>
       </c>
-      <c r="BY10" t="n">
-        <v>-42791178490936.21</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>155.895</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>2.438025970645374e+60</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>37.118</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>-2.438025970645374e+60</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>25.151</v>
-      </c>
       <c r="CE10" t="n">
-        <v>5.644392635431883e+37</v>
+        <v>-43263879457383.22</v>
       </c>
       <c r="CF10" t="n">
-        <v>5.988</v>
+        <v>37.132</v>
       </c>
       <c r="CG10" t="n">
-        <v>-5.644392635431883e+37</v>
+        <v>-2.559616185890879e+60</v>
       </c>
       <c r="CH10" t="n">
-        <v>21.02</v>
+        <v>5.991</v>
       </c>
       <c r="CI10" t="n">
-        <v>3.35407087557762e+35</v>
+        <v>-5.818766679767616e+37</v>
       </c>
       <c r="CJ10" t="n">
-        <v>5.005</v>
+        <v>5.007</v>
       </c>
       <c r="CK10" t="n">
-        <v>-3.35407087557762e+35</v>
+        <v>-3.451491494906108e+35</v>
       </c>
       <c r="CL10" t="n">
         <v>2.861</v>
@@ -2968,25 +2968,25 @@
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>0.179</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>0.119</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.2</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>0.179</v>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
@@ -3020,13 +3020,13 @@
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>4.5</v>
+        <v>0.269</v>
       </c>
       <c r="AI11" t="n">
-        <v>7.2</v>
+        <v>0.43</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.625</v>
+        <v>0.626</v>
       </c>
       <c r="AK11" t="n">
         <v>5</v>
@@ -3100,71 +3100,71 @@
       <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="n">
-        <v>27.78</v>
+        <v>27.67</v>
       </c>
       <c r="BQ11" t="n">
-        <v>13.89</v>
+        <v>13.95</v>
       </c>
       <c r="BR11" t="n">
-        <v>16.67</v>
+        <v>16.74</v>
       </c>
       <c r="BS11" t="n">
-        <v>41.67</v>
+        <v>41.63</v>
       </c>
       <c r="BT11" t="inlineStr"/>
       <c r="BU11" t="n">
         <v>1.008</v>
       </c>
       <c r="BV11" t="n">
-        <v>20.6</v>
+        <v>1.229</v>
       </c>
       <c r="BW11" t="n">
-        <v>3.634800335241331e+44</v>
+        <v>3.225281295990505e+44</v>
       </c>
       <c r="BX11" t="n">
-        <v>2.861</v>
+        <v>49.813</v>
       </c>
       <c r="BY11" t="n">
-        <v>-3.634800335241331e+44</v>
+        <v>7.309184398284374e+182</v>
       </c>
       <c r="BZ11" t="n">
-        <v>834.503</v>
+        <v>7.642</v>
       </c>
       <c r="CA11" t="n">
-        <v>1.063746863598009e+183</v>
+        <v>4.034122804026576e+112</v>
       </c>
       <c r="CB11" t="n">
-        <v>115.903</v>
+        <v>6.949</v>
       </c>
       <c r="CC11" t="n">
-        <v>-1.063746863598009e+183</v>
+        <v>1.588821499211118e+108</v>
       </c>
       <c r="CD11" t="n">
-        <v>128.026</v>
+        <v>2.858</v>
       </c>
       <c r="CE11" t="n">
-        <v>5.040835844926325e+112</v>
+        <v>-3.225281295990505e+44</v>
       </c>
       <c r="CF11" t="n">
-        <v>17.781</v>
+        <v>115.844</v>
       </c>
       <c r="CG11" t="n">
-        <v>-5.040835844926325e+112</v>
+        <v>-7.309184398284374e+182</v>
       </c>
       <c r="CH11" t="n">
-        <v>116.379</v>
+        <v>17.772</v>
       </c>
       <c r="CI11" t="n">
-        <v>1.933482497222328e+108</v>
+        <v>-4.034122804026576e+112</v>
       </c>
       <c r="CJ11" t="n">
-        <v>16.164</v>
+        <v>16.16</v>
       </c>
       <c r="CK11" t="n">
-        <v>-1.933482497222328e+108</v>
+        <v>-1.588821499211118e+108</v>
       </c>
       <c r="CL11" t="n">
-        <v>3.525</v>
+        <v>3.527</v>
       </c>
       <c r="CM11" t="n">
         <v>0</v>
@@ -3220,13 +3220,13 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0.287</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.2</v>
+        <v>0.345</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>0.862</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -3256,10 +3256,10 @@
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
-        <v>1</v>
+        <v>0.287</v>
       </c>
       <c r="AI12" t="n">
-        <v>4.2</v>
+        <v>1.207</v>
       </c>
       <c r="AJ12" t="n">
         <v>0.238</v>
@@ -3318,10 +3318,10 @@
       </c>
       <c r="BM12" t="inlineStr"/>
       <c r="BN12" t="n">
-        <v>28.57</v>
+        <v>28.58</v>
       </c>
       <c r="BO12" t="n">
-        <v>71.43000000000001</v>
+        <v>71.42</v>
       </c>
       <c r="BP12" t="inlineStr"/>
       <c r="BQ12" t="inlineStr"/>
@@ -3332,52 +3332,52 @@
         <v>0.967</v>
       </c>
       <c r="BV12" t="n">
-        <v>4.8</v>
+        <v>1.38</v>
       </c>
       <c r="BW12" t="n">
-        <v>1.588012630163056e+17</v>
+        <v>1.610180460380124e+17</v>
       </c>
       <c r="BX12" t="n">
+        <v>47.853</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>1.662716852782316e+61</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>7.508</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>1.701843742644304e+38</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>6.642</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>5.13923909872855e+36</v>
+      </c>
+      <c r="CD12" t="n">
         <v>1.143</v>
       </c>
-      <c r="BY12" t="n">
-        <v>-1.588012630163056e+17</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>166.444</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>1.582695758679712e+61</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>39.63</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>-1.582695758679712e+61</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>26.113</v>
-      </c>
       <c r="CE12" t="n">
-        <v>1.650223902537101e+38</v>
+        <v>-1.610180460380124e+17</v>
       </c>
       <c r="CF12" t="n">
-        <v>6.217</v>
+        <v>39.646</v>
       </c>
       <c r="CG12" t="n">
-        <v>-1.650223902537101e+38</v>
+        <v>-1.662716852782316e+61</v>
       </c>
       <c r="CH12" t="n">
-        <v>23.103</v>
+        <v>6.22</v>
       </c>
       <c r="CI12" t="n">
-        <v>4.989463641402254e+36</v>
+        <v>-1.701843742644304e+38</v>
       </c>
       <c r="CJ12" t="n">
-        <v>5.501</v>
+        <v>5.503</v>
       </c>
       <c r="CK12" t="n">
-        <v>-4.989463641402254e+36</v>
+        <v>-5.13923909872855e+36</v>
       </c>
       <c r="CL12" t="n">
         <v>1.752</v>
@@ -3436,13 +3436,13 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0.311</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0.311</v>
       </c>
       <c r="R13" t="n">
-        <v>2.4</v>
+        <v>0.747</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -3472,10 +3472,10 @@
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>0.311</v>
       </c>
       <c r="AI13" t="n">
-        <v>3.4</v>
+        <v>1.058</v>
       </c>
       <c r="AJ13" t="n">
         <v>0.294</v>
@@ -3534,10 +3534,10 @@
       </c>
       <c r="BM13" t="inlineStr"/>
       <c r="BN13" t="n">
-        <v>29.41</v>
+        <v>29.4</v>
       </c>
       <c r="BO13" t="n">
-        <v>70.59</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="BP13" t="inlineStr"/>
       <c r="BQ13" t="inlineStr"/>
@@ -3548,52 +3548,52 @@
         <v>0.967</v>
       </c>
       <c r="BV13" t="n">
-        <v>4</v>
+        <v>1.244</v>
       </c>
       <c r="BW13" t="n">
-        <v>5.088436333021971e+17</v>
+        <v>5.018382326358518e+17</v>
       </c>
       <c r="BX13" t="n">
+        <v>43.137</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>9.49136840375234e+62</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>6.768</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>2.127247429570658e+39</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>5.988</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>5.81012710773207e+37</v>
+      </c>
+      <c r="CD13" t="n">
         <v>1.176</v>
       </c>
-      <c r="BY13" t="n">
-        <v>-5.088436333021971e+17</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>138.703</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>9.971251969519276e+62</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>40.795</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>-9.971251969519276e+62</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>21.761</v>
-      </c>
       <c r="CE13" t="n">
-        <v>2.19378880738861e+39</v>
+        <v>-5.018382326358518e+17</v>
       </c>
       <c r="CF13" t="n">
-        <v>6.4</v>
+        <v>40.772</v>
       </c>
       <c r="CG13" t="n">
-        <v>-2.19378880738861e+39</v>
+        <v>-9.49136840375234e+62</v>
       </c>
       <c r="CH13" t="n">
-        <v>19.253</v>
+        <v>6.397</v>
       </c>
       <c r="CI13" t="n">
-        <v>5.984537526812752e+37</v>
+        <v>-2.127247429570658e+39</v>
       </c>
       <c r="CJ13" t="n">
-        <v>5.663</v>
+        <v>5.66</v>
       </c>
       <c r="CK13" t="n">
-        <v>-5.984537526812752e+37</v>
+        <v>-5.81012710773207e+37</v>
       </c>
       <c r="CL13" t="n">
         <v>1.764</v>
@@ -3664,22 +3664,22 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.2</v>
+        <v>0.095</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>0.239</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>0.159</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
@@ -3714,13 +3714,13 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="AI14" t="n">
-        <v>8.199999999999999</v>
+        <v>0.6529999999999999</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.122</v>
+        <v>0.123</v>
       </c>
       <c r="AK14" t="n">
         <v>6</v>
@@ -3800,19 +3800,19 @@
       </c>
       <c r="BM14" t="inlineStr"/>
       <c r="BN14" t="n">
-        <v>14.63</v>
+        <v>14.55</v>
       </c>
       <c r="BO14" t="n">
-        <v>36.59</v>
+        <v>36.6</v>
       </c>
       <c r="BP14" t="n">
-        <v>12.2</v>
+        <v>12.25</v>
       </c>
       <c r="BQ14" t="n">
-        <v>24.39</v>
+        <v>24.35</v>
       </c>
       <c r="BR14" t="n">
-        <v>12.2</v>
+        <v>12.25</v>
       </c>
       <c r="BS14" t="inlineStr"/>
       <c r="BT14" t="inlineStr"/>
@@ -3820,55 +3820,55 @@
         <v>1.264</v>
       </c>
       <c r="BV14" t="n">
-        <v>21.6</v>
+        <v>1.721</v>
       </c>
       <c r="BW14" t="n">
-        <v>1.06501783481189e+40</v>
+        <v>1.097393237054567e+40</v>
       </c>
       <c r="BX14" t="n">
-        <v>2.634</v>
+        <v>67.467</v>
       </c>
       <c r="BY14" t="n">
-        <v>-1.06501783481189e+40</v>
+        <v>9.031557270442576e+198</v>
       </c>
       <c r="BZ14" t="n">
-        <v>846.86</v>
+        <v>9.023</v>
       </c>
       <c r="CA14" t="n">
-        <v>9.101718990350157e+198</v>
+        <v>1.71812205935845e+111</v>
       </c>
       <c r="CB14" t="n">
-        <v>103.276</v>
+        <v>7.854</v>
       </c>
       <c r="CC14" t="n">
-        <v>-9.101718990350157e+198</v>
+        <v>5.047115963111871e+104</v>
       </c>
       <c r="CD14" t="n">
-        <v>113.298</v>
+        <v>2.636</v>
       </c>
       <c r="CE14" t="n">
-        <v>1.737969437552466e+111</v>
+        <v>-1.097393237054567e+40</v>
       </c>
       <c r="CF14" t="n">
-        <v>13.817</v>
+        <v>103.319</v>
       </c>
       <c r="CG14" t="n">
-        <v>-1.737969437552466e+111</v>
+        <v>-9.031557270442576e+198</v>
       </c>
       <c r="CH14" t="n">
-        <v>98.599</v>
+        <v>13.818</v>
       </c>
       <c r="CI14" t="n">
-        <v>5.028757465363231e+104</v>
+        <v>-1.71812205935845e+111</v>
       </c>
       <c r="CJ14" t="n">
-        <v>12.024</v>
+        <v>12.028</v>
       </c>
       <c r="CK14" t="n">
-        <v>-5.028757465363231e+104</v>
+        <v>-5.047115963111871e+104</v>
       </c>
       <c r="CL14" t="n">
-        <v>3.581</v>
+        <v>3.582</v>
       </c>
       <c r="CM14" t="n">
         <v>1</v>
@@ -3924,13 +3924,13 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0.127</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.2</v>
+        <v>0.153</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>0.382</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -3968,13 +3968,13 @@
         <v>4</v>
       </c>
       <c r="AH15" t="n">
-        <v>1</v>
+        <v>0.127</v>
       </c>
       <c r="AI15" t="n">
-        <v>4.2</v>
+        <v>0.535</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.238</v>
+        <v>0.237</v>
       </c>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
@@ -4030,10 +4030,10 @@
       </c>
       <c r="BM15" t="inlineStr"/>
       <c r="BN15" t="n">
-        <v>28.57</v>
+        <v>28.6</v>
       </c>
       <c r="BO15" t="n">
-        <v>71.43000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="BP15" t="inlineStr"/>
       <c r="BQ15" t="inlineStr"/>
@@ -4044,52 +4044,52 @@
         <v>1.201</v>
       </c>
       <c r="BV15" t="n">
-        <v>13.8</v>
+        <v>1.758</v>
       </c>
       <c r="BW15" t="n">
-        <v>1.912604515900127e+51</v>
+        <v>1.929182612242941e+51</v>
       </c>
       <c r="BX15" t="n">
+        <v>63.547</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>1.754043344645029e+207</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>8.567</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>2.778829705460253e+119</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>7.609</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>2.094508457580409e+114</v>
+      </c>
+      <c r="CD15" t="n">
         <v>3.286</v>
       </c>
-      <c r="BY15" t="n">
-        <v>-1.912604515900127e+51</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>498.846</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>1.742264288638113e+207</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>118.773</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>-1.742264288638113e+207</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>67.246</v>
-      </c>
       <c r="CE15" t="n">
-        <v>2.740585465988083e+119</v>
+        <v>-1.929182612242941e+51</v>
       </c>
       <c r="CF15" t="n">
-        <v>16.011</v>
+        <v>118.779</v>
       </c>
       <c r="CG15" t="n">
-        <v>-2.740585465988083e+119</v>
+        <v>-1.754043344645029e+207</v>
       </c>
       <c r="CH15" t="n">
-        <v>59.725</v>
+        <v>16.013</v>
       </c>
       <c r="CI15" t="n">
-        <v>2.06607347304721e+114</v>
+        <v>-2.778829705460253e+119</v>
       </c>
       <c r="CJ15" t="n">
-        <v>14.22</v>
+        <v>14.222</v>
       </c>
       <c r="CK15" t="n">
-        <v>-2.06607347304721e+114</v>
+        <v>-2.094508457580409e+114</v>
       </c>
       <c r="CL15" t="n">
         <v>3.397</v>
@@ -4148,13 +4148,13 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0.105</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.2</v>
+        <v>0.127</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>0.316</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -4192,13 +4192,13 @@
         <v>7</v>
       </c>
       <c r="AH16" t="n">
-        <v>1</v>
+        <v>0.105</v>
       </c>
       <c r="AI16" t="n">
-        <v>4.2</v>
+        <v>0.443</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.238</v>
+        <v>0.237</v>
       </c>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
@@ -4254,10 +4254,10 @@
       </c>
       <c r="BM16" t="inlineStr"/>
       <c r="BN16" t="n">
-        <v>28.57</v>
+        <v>28.67</v>
       </c>
       <c r="BO16" t="n">
-        <v>71.43000000000001</v>
+        <v>71.33</v>
       </c>
       <c r="BP16" t="inlineStr"/>
       <c r="BQ16" t="inlineStr"/>
@@ -4268,52 +4268,52 @@
         <v>1.375</v>
       </c>
       <c r="BV16" t="n">
-        <v>13.8</v>
+        <v>1.456</v>
       </c>
       <c r="BW16" t="n">
-        <v>1.912604515900127e+51</v>
+        <v>1.968425808447215e+51</v>
       </c>
       <c r="BX16" t="n">
-        <v>3.286</v>
+        <v>58.38</v>
       </c>
       <c r="BY16" t="n">
-        <v>-1.912604515900127e+51</v>
+        <v>9.179521368933487e+211</v>
       </c>
       <c r="BZ16" t="n">
-        <v>553.454</v>
+        <v>6.992</v>
       </c>
       <c r="CA16" t="n">
-        <v>9.113214622327625e+211</v>
+        <v>5.065450977676164e+118</v>
       </c>
       <c r="CB16" t="n">
-        <v>131.775</v>
+        <v>6.407</v>
       </c>
       <c r="CC16" t="n">
-        <v>-9.113214622327625e+211</v>
+        <v>1.44450252096676e+115</v>
       </c>
       <c r="CD16" t="n">
-        <v>66.25700000000001</v>
+        <v>3.287</v>
       </c>
       <c r="CE16" t="n">
-        <v>4.825031082481979e+118</v>
+        <v>-1.968425808447215e+51</v>
       </c>
       <c r="CF16" t="n">
-        <v>15.775</v>
+        <v>131.783</v>
       </c>
       <c r="CG16" t="n">
-        <v>-4.825031082481979e+118</v>
+        <v>-9.179521368933487e+211</v>
       </c>
       <c r="CH16" t="n">
-        <v>60.713</v>
+        <v>15.783</v>
       </c>
       <c r="CI16" t="n">
-        <v>1.383842749961713e+115</v>
+        <v>-5.065450977676164e+118</v>
       </c>
       <c r="CJ16" t="n">
-        <v>14.455</v>
+        <v>14.463</v>
       </c>
       <c r="CK16" t="n">
-        <v>-1.383842749961713e+115</v>
+        <v>-1.44450252096676e+115</v>
       </c>
       <c r="CL16" t="n">
         <v>4.278</v>
@@ -4372,13 +4372,13 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0.287</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.2</v>
+        <v>0.345</v>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>0.862</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -4408,10 +4408,10 @@
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="n">
-        <v>1</v>
+        <v>0.287</v>
       </c>
       <c r="AI17" t="n">
-        <v>4.2</v>
+        <v>1.207</v>
       </c>
       <c r="AJ17" t="n">
         <v>0.238</v>
@@ -4470,10 +4470,10 @@
       </c>
       <c r="BM17" t="inlineStr"/>
       <c r="BN17" t="n">
-        <v>28.57</v>
+        <v>28.58</v>
       </c>
       <c r="BO17" t="n">
-        <v>71.43000000000001</v>
+        <v>71.42</v>
       </c>
       <c r="BP17" t="inlineStr"/>
       <c r="BQ17" t="inlineStr"/>
@@ -4484,52 +4484,52 @@
         <v>0.967</v>
       </c>
       <c r="BV17" t="n">
-        <v>4.8</v>
+        <v>1.38</v>
       </c>
       <c r="BW17" t="n">
-        <v>1.588012630163056e+17</v>
+        <v>1.610180460380124e+17</v>
       </c>
       <c r="BX17" t="n">
+        <v>47.853</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>1.662716852782316e+61</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>7.508</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>1.701843742644304e+38</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>6.642</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>5.13923909872855e+36</v>
+      </c>
+      <c r="CD17" t="n">
         <v>1.143</v>
       </c>
-      <c r="BY17" t="n">
-        <v>-1.588012630163056e+17</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>166.444</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>1.582695758679712e+61</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>39.63</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>-1.582695758679712e+61</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>26.113</v>
-      </c>
       <c r="CE17" t="n">
-        <v>1.650223902537101e+38</v>
+        <v>-1.610180460380124e+17</v>
       </c>
       <c r="CF17" t="n">
-        <v>6.217</v>
+        <v>39.646</v>
       </c>
       <c r="CG17" t="n">
-        <v>-1.650223902537101e+38</v>
+        <v>-1.662716852782316e+61</v>
       </c>
       <c r="CH17" t="n">
-        <v>23.103</v>
+        <v>6.22</v>
       </c>
       <c r="CI17" t="n">
-        <v>4.989463641402254e+36</v>
+        <v>-1.701843742644304e+38</v>
       </c>
       <c r="CJ17" t="n">
-        <v>5.501</v>
+        <v>5.503</v>
       </c>
       <c r="CK17" t="n">
-        <v>-4.989463641402254e+36</v>
+        <v>-5.13923909872855e+36</v>
       </c>
       <c r="CL17" t="n">
         <v>1.752</v>
@@ -4588,13 +4588,13 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0.287</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.2</v>
+        <v>0.345</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>0.862</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -4624,10 +4624,10 @@
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>0.287</v>
       </c>
       <c r="AI18" t="n">
-        <v>4.2</v>
+        <v>1.207</v>
       </c>
       <c r="AJ18" t="n">
         <v>0.238</v>
@@ -4686,10 +4686,10 @@
       </c>
       <c r="BM18" t="inlineStr"/>
       <c r="BN18" t="n">
-        <v>28.57</v>
+        <v>28.58</v>
       </c>
       <c r="BO18" t="n">
-        <v>71.43000000000001</v>
+        <v>71.42</v>
       </c>
       <c r="BP18" t="inlineStr"/>
       <c r="BQ18" t="inlineStr"/>
@@ -4700,52 +4700,52 @@
         <v>0.967</v>
       </c>
       <c r="BV18" t="n">
-        <v>4.8</v>
+        <v>1.38</v>
       </c>
       <c r="BW18" t="n">
-        <v>1.588012630163056e+17</v>
+        <v>1.610180460380124e+17</v>
       </c>
       <c r="BX18" t="n">
+        <v>47.853</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>1.662716852782316e+61</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>7.508</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>1.701843742644304e+38</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>6.642</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>5.13923909872855e+36</v>
+      </c>
+      <c r="CD18" t="n">
         <v>1.143</v>
       </c>
-      <c r="BY18" t="n">
-        <v>-1.588012630163056e+17</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>166.444</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>1.582695758679712e+61</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>39.63</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>-1.582695758679712e+61</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>26.113</v>
-      </c>
       <c r="CE18" t="n">
-        <v>1.650223902537101e+38</v>
+        <v>-1.610180460380124e+17</v>
       </c>
       <c r="CF18" t="n">
-        <v>6.217</v>
+        <v>39.646</v>
       </c>
       <c r="CG18" t="n">
-        <v>-1.650223902537101e+38</v>
+        <v>-1.662716852782316e+61</v>
       </c>
       <c r="CH18" t="n">
-        <v>23.103</v>
+        <v>6.22</v>
       </c>
       <c r="CI18" t="n">
-        <v>4.989463641402254e+36</v>
+        <v>-1.701843742644304e+38</v>
       </c>
       <c r="CJ18" t="n">
-        <v>5.501</v>
+        <v>5.503</v>
       </c>
       <c r="CK18" t="n">
-        <v>-4.989463641402254e+36</v>
+        <v>-5.13923909872855e+36</v>
       </c>
       <c r="CL18" t="n">
         <v>1.752</v>
@@ -4804,13 +4804,13 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0.287</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.2</v>
+        <v>0.345</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>0.862</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -4840,10 +4840,10 @@
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="n">
-        <v>1</v>
+        <v>0.287</v>
       </c>
       <c r="AI19" t="n">
-        <v>4.2</v>
+        <v>1.207</v>
       </c>
       <c r="AJ19" t="n">
         <v>0.238</v>
@@ -4902,10 +4902,10 @@
       </c>
       <c r="BM19" t="inlineStr"/>
       <c r="BN19" t="n">
-        <v>28.57</v>
+        <v>28.58</v>
       </c>
       <c r="BO19" t="n">
-        <v>71.43000000000001</v>
+        <v>71.42</v>
       </c>
       <c r="BP19" t="inlineStr"/>
       <c r="BQ19" t="inlineStr"/>
@@ -4916,52 +4916,52 @@
         <v>0.967</v>
       </c>
       <c r="BV19" t="n">
-        <v>4.8</v>
+        <v>1.38</v>
       </c>
       <c r="BW19" t="n">
-        <v>1.588012630163056e+17</v>
+        <v>1.610180460380124e+17</v>
       </c>
       <c r="BX19" t="n">
+        <v>47.853</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>1.662716852782316e+61</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>7.508</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>1.701843742644304e+38</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>6.642</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>5.13923909872855e+36</v>
+      </c>
+      <c r="CD19" t="n">
         <v>1.143</v>
       </c>
-      <c r="BY19" t="n">
-        <v>-1.588012630163056e+17</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>166.444</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>1.582695758679712e+61</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>39.63</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>-1.582695758679712e+61</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>26.113</v>
-      </c>
       <c r="CE19" t="n">
-        <v>1.650223902537101e+38</v>
+        <v>-1.610180460380124e+17</v>
       </c>
       <c r="CF19" t="n">
-        <v>6.217</v>
+        <v>39.646</v>
       </c>
       <c r="CG19" t="n">
-        <v>-1.650223902537101e+38</v>
+        <v>-1.662716852782316e+61</v>
       </c>
       <c r="CH19" t="n">
-        <v>23.103</v>
+        <v>6.22</v>
       </c>
       <c r="CI19" t="n">
-        <v>4.989463641402254e+36</v>
+        <v>-1.701843742644304e+38</v>
       </c>
       <c r="CJ19" t="n">
-        <v>5.501</v>
+        <v>5.503</v>
       </c>
       <c r="CK19" t="n">
-        <v>-4.989463641402254e+36</v>
+        <v>-5.13923909872855e+36</v>
       </c>
       <c r="CL19" t="n">
         <v>1.752</v>
@@ -5107,25 +5107,25 @@
         <v>0</v>
       </c>
       <c r="BY20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE20" t="n">
         <v>-1</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>1</v>
       </c>
       <c r="CF20" t="n">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="CI20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CJ20" t="n">
         <v>0</v>
@@ -5202,13 +5202,13 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>0.85</v>
+        <v>0.535</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.2</v>
+        <v>0.755</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>1.887</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -5230,10 +5230,10 @@
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="n">
-        <v>0.85</v>
+        <v>0.535</v>
       </c>
       <c r="AI21" t="n">
-        <v>4.2</v>
+        <v>2.642</v>
       </c>
       <c r="AJ21" t="n">
         <v>0.202</v>
@@ -5292,10 +5292,10 @@
       </c>
       <c r="BM21" t="inlineStr"/>
       <c r="BN21" t="n">
-        <v>28.57</v>
+        <v>28.58</v>
       </c>
       <c r="BO21" t="n">
-        <v>71.43000000000001</v>
+        <v>71.42</v>
       </c>
       <c r="BP21" t="inlineStr"/>
       <c r="BQ21" t="inlineStr"/>
@@ -5315,25 +5315,25 @@
         <v>0</v>
       </c>
       <c r="BY21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE21" t="n">
         <v>-1</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>1</v>
       </c>
       <c r="CF21" t="n">
         <v>0</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="CI21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CJ21" t="n">
         <v>0</v>
@@ -5410,13 +5410,13 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.2</v>
+        <v>0.096</v>
       </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>0.24</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -5446,10 +5446,10 @@
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="n">
-        <v>2.2</v>
+        <v>0.176</v>
       </c>
       <c r="AI22" t="n">
-        <v>3</v>
+        <v>0.24</v>
       </c>
       <c r="AJ22" t="n">
         <v>0.733</v>
@@ -5524,46 +5524,46 @@
         <v>1.551</v>
       </c>
       <c r="BV22" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="BW22" t="n">
         <v>5.153775207320113e+47</v>
       </c>
       <c r="BX22" t="n">
-        <v>3</v>
+        <v>30.961</v>
       </c>
       <c r="BY22" t="n">
+        <v>1.148583625156742e+211</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>3.212</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>4.467732240319562e+112</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>3.009</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>6.577330602902234e+109</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE22" t="n">
         <v>-5.153775207320113e+47</v>
       </c>
-      <c r="BZ22" t="n">
-        <v>387.011</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>1.148583625156742e+211</v>
-      </c>
-      <c r="CB22" t="n">
+      <c r="CF22" t="n">
         <v>129.004</v>
       </c>
-      <c r="CC22" t="n">
+      <c r="CG22" t="n">
         <v>-1.148583625156742e+211</v>
       </c>
-      <c r="CD22" t="n">
-        <v>40.144</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>4.467732240319562e+112</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>13.381</v>
-      </c>
-      <c r="CG22" t="n">
+      <c r="CH22" t="n">
+        <v>13.383</v>
+      </c>
+      <c r="CI22" t="n">
         <v>-4.467732240319562e+112</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>37.61</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>6.577330602902234e+109</v>
       </c>
       <c r="CJ22" t="n">
         <v>12.537</v>
@@ -5632,16 +5632,16 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>1.15</v>
+        <v>0.097</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>0.169</v>
       </c>
       <c r="R23" t="n">
-        <v>1.2</v>
+        <v>0.101</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>0.253</v>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
@@ -5670,13 +5670,13 @@
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="n">
-        <v>3.15</v>
+        <v>0.266</v>
       </c>
       <c r="AI23" t="n">
-        <v>4.2</v>
+        <v>0.354</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
@@ -5737,10 +5737,10 @@
       <c r="BM23" t="inlineStr"/>
       <c r="BN23" t="inlineStr"/>
       <c r="BO23" t="n">
-        <v>28.57</v>
+        <v>28.53</v>
       </c>
       <c r="BP23" t="n">
-        <v>71.43000000000001</v>
+        <v>71.47</v>
       </c>
       <c r="BQ23" t="inlineStr"/>
       <c r="BR23" t="inlineStr"/>
@@ -5750,52 +5750,52 @@
         <v>1.412</v>
       </c>
       <c r="BV23" t="n">
-        <v>6</v>
+        <v>0.506</v>
       </c>
       <c r="BW23" t="n">
-        <v>3.181065343993576e+21</v>
+        <v>3.270497263656214e+21</v>
       </c>
       <c r="BX23" t="n">
+        <v>23.657</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>7.170095231271386e+140</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>2.709</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>3.898131379141567e+73</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>2.581</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>1.222288743470258e+72</v>
+      </c>
+      <c r="CD23" t="n">
         <v>1.429</v>
       </c>
-      <c r="BY23" t="n">
-        <v>-3.181065343993576e+21</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>280.515</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>5.979867391908234e+140</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>66.789</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>-5.979867391908234e+140</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>32.122</v>
-      </c>
       <c r="CE23" t="n">
-        <v>3.545434618416493e+73</v>
+        <v>-3.270497263656214e+21</v>
       </c>
       <c r="CF23" t="n">
-        <v>7.648</v>
+        <v>66.828</v>
       </c>
       <c r="CG23" t="n">
-        <v>-3.545434618416493e+73</v>
+        <v>-7.170095231271386e+140</v>
       </c>
       <c r="CH23" t="n">
-        <v>30.602</v>
+        <v>7.653</v>
       </c>
       <c r="CI23" t="n">
-        <v>1.113854324185029e+72</v>
+        <v>-3.898131379141567e+73</v>
       </c>
       <c r="CJ23" t="n">
-        <v>7.286</v>
+        <v>7.291</v>
       </c>
       <c r="CK23" t="n">
-        <v>-1.113854324185029e+72</v>
+        <v>-1.222288743470258e+72</v>
       </c>
       <c r="CL23" t="n">
         <v>3.345</v>
@@ -5874,28 +5874,28 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.5</v>
+        <v>0.027</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>0.162</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0.054</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>0.108</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0.054</v>
       </c>
       <c r="U24" t="n">
-        <v>1.2</v>
+        <v>0.065</v>
       </c>
       <c r="V24" t="n">
-        <v>3</v>
+        <v>0.162</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>0.108</v>
       </c>
       <c r="X24" t="n">
         <v>4</v>
@@ -5928,10 +5928,10 @@
         <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>4.5</v>
+        <v>0.243</v>
       </c>
       <c r="AI24" t="n">
-        <v>9.199999999999999</v>
+        <v>0.497</v>
       </c>
       <c r="AJ24" t="n">
         <v>0.489</v>
@@ -6016,70 +6016,70 @@
       <c r="BN24" t="inlineStr"/>
       <c r="BO24" t="inlineStr"/>
       <c r="BP24" t="n">
-        <v>21.74</v>
+        <v>21.73</v>
       </c>
       <c r="BQ24" t="n">
         <v>10.87</v>
       </c>
       <c r="BR24" t="n">
-        <v>13.04</v>
+        <v>13.08</v>
       </c>
       <c r="BS24" t="n">
-        <v>32.61</v>
+        <v>32.6</v>
       </c>
       <c r="BT24" t="n">
-        <v>21.74</v>
+        <v>21.73</v>
       </c>
       <c r="BU24" t="n">
         <v>1.451</v>
       </c>
       <c r="BV24" t="n">
-        <v>19.4</v>
+        <v>1.048</v>
       </c>
       <c r="BW24" t="n">
-        <v>3.742307511686052e+32</v>
+        <v>3.753088960204787e+32</v>
       </c>
       <c r="BX24" t="n">
+        <v>38.009</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>1.890578465707031e+137</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>5.742</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>7.085420231419174e+81</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>1.394125557060554e+76</v>
+      </c>
+      <c r="CD24" t="n">
         <v>2.109</v>
       </c>
-      <c r="BY24" t="n">
-        <v>-3.742307511686052e+32</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>703.6609999999999</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>1.770680361246473e+137</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>76.485</v>
-      </c>
-      <c r="CC24" t="n">
-        <v>-1.770680361246473e+137</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>106.293</v>
-      </c>
       <c r="CE24" t="n">
-        <v>6.894049270568935e+81</v>
+        <v>-3.753088960204787e+32</v>
       </c>
       <c r="CF24" t="n">
-        <v>11.554</v>
+        <v>76.477</v>
       </c>
       <c r="CG24" t="n">
-        <v>-6.894049270568935e+81</v>
+        <v>-1.890578465707031e+137</v>
       </c>
       <c r="CH24" t="n">
-        <v>89.238</v>
+        <v>11.553</v>
       </c>
       <c r="CI24" t="n">
-        <v>1.369685654301218e+76</v>
+        <v>-7.085420231419174e+81</v>
       </c>
       <c r="CJ24" t="n">
-        <v>9.699999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="CK24" t="n">
-        <v>-1.369685654301218e+76</v>
+        <v>-1.394125557060554e+76</v>
       </c>
       <c r="CL24" t="n">
         <v>2.747</v>
@@ -6158,28 +6158,28 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.5</v>
+        <v>0.026</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>0.154</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0.051</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>0.103</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0.051</v>
       </c>
       <c r="U25" t="n">
-        <v>1.2</v>
+        <v>0.062</v>
       </c>
       <c r="V25" t="n">
-        <v>3</v>
+        <v>0.154</v>
       </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>0.103</v>
       </c>
       <c r="X25" t="n">
         <v>4</v>
@@ -6212,10 +6212,10 @@
         <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.5</v>
+        <v>0.077</v>
       </c>
       <c r="AI25" t="n">
-        <v>12.2</v>
+        <v>0.627</v>
       </c>
       <c r="AJ25" t="n">
         <v>0.123</v>
@@ -6302,77 +6302,77 @@
       </c>
       <c r="BM25" t="inlineStr"/>
       <c r="BN25" t="n">
-        <v>24.59</v>
+        <v>24.56</v>
       </c>
       <c r="BO25" t="inlineStr"/>
       <c r="BP25" t="n">
-        <v>16.39</v>
+        <v>16.43</v>
       </c>
       <c r="BQ25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="BR25" t="n">
-        <v>9.84</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="BS25" t="n">
-        <v>24.59</v>
+        <v>24.56</v>
       </c>
       <c r="BT25" t="n">
-        <v>16.39</v>
+        <v>16.43</v>
       </c>
       <c r="BU25" t="n">
-        <v>1.3</v>
+        <v>1.301</v>
       </c>
       <c r="BV25" t="n">
-        <v>28.4</v>
+        <v>1.46</v>
       </c>
       <c r="BW25" t="n">
-        <v>1.9711592951793e+36</v>
+        <v>2.019427873852393e+36</v>
       </c>
       <c r="BX25" t="n">
-        <v>2.328</v>
+        <v>61.958</v>
       </c>
       <c r="BY25" t="n">
-        <v>-1.9711592951793e+36</v>
+        <v>1.66381350303265e+158</v>
       </c>
       <c r="BZ25" t="n">
-        <v>1205.622</v>
+        <v>9.603999999999999</v>
       </c>
       <c r="CA25" t="n">
-        <v>1.499998561651109e+158</v>
+        <v>7.511105614719699e+96</v>
       </c>
       <c r="CB25" t="n">
-        <v>98.821</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="CC25" t="n">
-        <v>-1.499998561651109e+158</v>
+        <v>2.361760903449554e+93</v>
       </c>
       <c r="CD25" t="n">
-        <v>186.873</v>
+        <v>2.329</v>
       </c>
       <c r="CE25" t="n">
-        <v>7.164811532688069e+96</v>
+        <v>-2.019427873852393e+36</v>
       </c>
       <c r="CF25" t="n">
+        <v>98.81699999999999</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>-1.66381350303265e+158</v>
+      </c>
+      <c r="CH25" t="n">
         <v>15.317</v>
       </c>
-      <c r="CG25" t="n">
-        <v>-7.164811532688069e+96</v>
-      </c>
-      <c r="CH25" t="n">
-        <v>176.13</v>
-      </c>
       <c r="CI25" t="n">
-        <v>2.292508991851521e+93</v>
+        <v>-7.511105614719699e+96</v>
       </c>
       <c r="CJ25" t="n">
-        <v>14.437</v>
+        <v>14.434</v>
       </c>
       <c r="CK25" t="n">
-        <v>-2.292508991851521e+93</v>
+        <v>-2.361760903449554e+93</v>
       </c>
       <c r="CL25" t="n">
-        <v>3.639</v>
+        <v>3.638</v>
       </c>
       <c r="CM25" t="n">
         <v>1</v>
@@ -6440,22 +6440,22 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0.082</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.2</v>
+        <v>0.099</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>0.247</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>0.082</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>0.165</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0.082</v>
       </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
@@ -6490,10 +6490,10 @@
         <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>4</v>
+        <v>0.329</v>
       </c>
       <c r="AI26" t="n">
-        <v>5.2</v>
+        <v>0.428</v>
       </c>
       <c r="AJ26" t="n">
         <v>0.769</v>
@@ -6572,70 +6572,70 @@
       </c>
       <c r="BM26" t="inlineStr"/>
       <c r="BN26" t="n">
-        <v>23.08</v>
+        <v>23.13</v>
       </c>
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="n">
-        <v>19.23</v>
+        <v>19.16</v>
       </c>
       <c r="BQ26" t="n">
-        <v>38.46</v>
+        <v>38.55</v>
       </c>
       <c r="BR26" t="n">
-        <v>19.23</v>
+        <v>19.16</v>
       </c>
       <c r="BS26" t="inlineStr"/>
       <c r="BT26" t="inlineStr"/>
       <c r="BU26" t="n">
-        <v>1.034</v>
+        <v>1.035</v>
       </c>
       <c r="BV26" t="n">
-        <v>14.6</v>
+        <v>1.201</v>
       </c>
       <c r="BW26" t="n">
-        <v>2.199011768864267e+43</v>
+        <v>2.077942992922389e+43</v>
       </c>
       <c r="BX26" t="n">
-        <v>2.808</v>
+        <v>47.417</v>
       </c>
       <c r="BY26" t="n">
-        <v>-2.199011768864267e+43</v>
+        <v>3.175344225554811e+200</v>
       </c>
       <c r="BZ26" t="n">
-        <v>576.592</v>
+        <v>7.585</v>
       </c>
       <c r="CA26" t="n">
-        <v>3.4870253606367e+200</v>
+        <v>1.519219067262586e+120</v>
       </c>
       <c r="CB26" t="n">
-        <v>110.883</v>
+        <v>7.227</v>
       </c>
       <c r="CC26" t="n">
-        <v>-3.4870253606367e+200</v>
+        <v>7.677097945593022e+113</v>
       </c>
       <c r="CD26" t="n">
-        <v>92.23399999999999</v>
+        <v>2.806</v>
       </c>
       <c r="CE26" t="n">
-        <v>1.680809489893456e+120</v>
+        <v>-2.077942992922389e+43</v>
       </c>
       <c r="CF26" t="n">
-        <v>17.737</v>
+        <v>110.787</v>
       </c>
       <c r="CG26" t="n">
-        <v>-1.680809489893456e+120</v>
+        <v>-3.175344225554811e+200</v>
       </c>
       <c r="CH26" t="n">
-        <v>87.929</v>
+        <v>17.722</v>
       </c>
       <c r="CI26" t="n">
-        <v>8.887186063949943e+113</v>
+        <v>-1.519219067262586e+120</v>
       </c>
       <c r="CJ26" t="n">
-        <v>16.909</v>
+        <v>16.886</v>
       </c>
       <c r="CK26" t="n">
-        <v>-8.887186063949943e+113</v>
+        <v>-7.677097945593022e+113</v>
       </c>
       <c r="CL26" t="n">
         <v>3.255</v>
@@ -6698,16 +6698,16 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>0.5</v>
+        <v>0.049</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0.098</v>
       </c>
       <c r="R27" t="n">
-        <v>1.2</v>
+        <v>0.118</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>0.295</v>
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
@@ -6744,10 +6744,10 @@
         <v>7</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.5</v>
+        <v>0.049</v>
       </c>
       <c r="AI27" t="n">
-        <v>5.2</v>
+        <v>0.511</v>
       </c>
       <c r="AJ27" t="n">
         <v>0.096</v>
@@ -6814,13 +6814,13 @@
       </c>
       <c r="BM27" t="inlineStr"/>
       <c r="BN27" t="n">
-        <v>19.23</v>
+        <v>19.18</v>
       </c>
       <c r="BO27" t="n">
-        <v>23.08</v>
+        <v>23.09</v>
       </c>
       <c r="BP27" t="n">
-        <v>57.69</v>
+        <v>57.73</v>
       </c>
       <c r="BQ27" t="inlineStr"/>
       <c r="BR27" t="inlineStr"/>
@@ -6830,52 +6830,52 @@
         <v>1.032</v>
       </c>
       <c r="BV27" t="n">
-        <v>15.6</v>
+        <v>1.533</v>
       </c>
       <c r="BW27" t="n">
         <v>5.153775207320093e+47</v>
       </c>
       <c r="BX27" t="n">
-        <v>3</v>
+        <v>87.929</v>
       </c>
       <c r="BY27" t="n">
+        <v>1.089003233625246e+223</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>13.636</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>2.059860285832026e+140</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>16.324</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>4.224156582145543e+146</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE27" t="n">
         <v>-5.153775207320093e+47</v>
       </c>
-      <c r="BZ27" t="n">
-        <v>894.75</v>
-      </c>
-      <c r="CA27" t="n">
-        <v>1.085338744933381e+223</v>
-      </c>
-      <c r="CB27" t="n">
-        <v>172.067</v>
-      </c>
-      <c r="CC27" t="n">
-        <v>-1.085338744933381e+223</v>
-      </c>
-      <c r="CD27" t="n">
-        <v>138.765</v>
-      </c>
-      <c r="CE27" t="n">
-        <v>2.064380225441778e+140</v>
-      </c>
       <c r="CF27" t="n">
-        <v>26.686</v>
+        <v>172.072</v>
       </c>
       <c r="CG27" t="n">
-        <v>-2.064380225441778e+140</v>
+        <v>-1.089003233625246e+223</v>
       </c>
       <c r="CH27" t="n">
-        <v>166.124</v>
+        <v>26.685</v>
       </c>
       <c r="CI27" t="n">
-        <v>4.250380622617884e+146</v>
+        <v>-2.059860285832026e+140</v>
       </c>
       <c r="CJ27" t="n">
-        <v>31.947</v>
+        <v>31.945</v>
       </c>
       <c r="CK27" t="n">
-        <v>-4.250380622617884e+146</v>
+        <v>-4.224156582145543e+146</v>
       </c>
       <c r="CL27" t="n">
         <v>3.995</v>
@@ -6934,13 +6934,13 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0.111</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.2</v>
+        <v>0.134</v>
       </c>
       <c r="R28" t="n">
-        <v>3</v>
+        <v>0.334</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -6978,13 +6978,13 @@
         <v>7</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>0.111</v>
       </c>
       <c r="AI28" t="n">
-        <v>4.2</v>
+        <v>0.468</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.238</v>
+        <v>0.237</v>
       </c>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
@@ -7040,10 +7040,10 @@
       </c>
       <c r="BM28" t="inlineStr"/>
       <c r="BN28" t="n">
-        <v>28.57</v>
+        <v>28.63</v>
       </c>
       <c r="BO28" t="n">
-        <v>71.43000000000001</v>
+        <v>71.37</v>
       </c>
       <c r="BP28" t="inlineStr"/>
       <c r="BQ28" t="inlineStr"/>
@@ -7054,52 +7054,52 @@
         <v>1.407</v>
       </c>
       <c r="BV28" t="n">
-        <v>12.6</v>
+        <v>1.404</v>
       </c>
       <c r="BW28" t="n">
-        <v>5.153775207320154e+47</v>
+        <v>5.153775207320134e+47</v>
       </c>
       <c r="BX28" t="n">
-        <v>3</v>
+        <v>56.281</v>
       </c>
       <c r="BY28" t="n">
-        <v>-5.153775207320154e+47</v>
+        <v>5.023255068706499e+207</v>
       </c>
       <c r="BZ28" t="n">
-        <v>505.166</v>
+        <v>6.751</v>
       </c>
       <c r="CA28" t="n">
-        <v>5.105344724714654e+207</v>
+        <v>4.404659560233804e+115</v>
       </c>
       <c r="CB28" t="n">
-        <v>120.278</v>
+        <v>5.263</v>
       </c>
       <c r="CC28" t="n">
-        <v>-5.105344724714654e+207</v>
+        <v>1.872491844240624e+104</v>
       </c>
       <c r="CD28" t="n">
-        <v>60.573</v>
+        <v>3</v>
       </c>
       <c r="CE28" t="n">
-        <v>4.341483713627279e+115</v>
+        <v>-5.153775207320134e+47</v>
       </c>
       <c r="CF28" t="n">
-        <v>14.422</v>
+        <v>120.259</v>
       </c>
       <c r="CG28" t="n">
-        <v>-4.341483713627279e+115</v>
+        <v>-5.023255068706499e+207</v>
       </c>
       <c r="CH28" t="n">
-        <v>47.241</v>
+        <v>14.425</v>
       </c>
       <c r="CI28" t="n">
-        <v>1.923277416803601e+104</v>
+        <v>-4.404659560233804e+115</v>
       </c>
       <c r="CJ28" t="n">
-        <v>11.248</v>
+        <v>11.246</v>
       </c>
       <c r="CK28" t="n">
-        <v>-1.923277416803601e+104</v>
+        <v>-1.872491844240624e+104</v>
       </c>
       <c r="CL28" t="n">
         <v>4.337</v>
@@ -7158,13 +7158,13 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -7202,10 +7202,10 @@
         <v>7</v>
       </c>
       <c r="AH29" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AI29" t="n">
-        <v>4.2</v>
+        <v>0.42</v>
       </c>
       <c r="AJ29" t="n">
         <v>0.238</v>
@@ -7278,46 +7278,46 @@
         <v>1.344</v>
       </c>
       <c r="BV29" t="n">
-        <v>16.2</v>
+        <v>1.62</v>
       </c>
       <c r="BW29" t="n">
         <v>2.053773037808426e+56</v>
       </c>
       <c r="BX29" t="n">
+        <v>60.551</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>2.169322630266425e+215</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>7.443</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>1.15194516407492e+122</v>
+      </c>
+      <c r="CB29" t="n">
+        <v>6.761</v>
+      </c>
+      <c r="CC29" t="n">
+        <v>2.415658468990249e+118</v>
+      </c>
+      <c r="CD29" t="n">
         <v>3.857</v>
       </c>
-      <c r="BY29" t="n">
+      <c r="CE29" t="n">
         <v>-2.053773037808426e+56</v>
       </c>
-      <c r="BZ29" t="n">
-        <v>605.513</v>
-      </c>
-      <c r="CA29" t="n">
-        <v>2.169322630266425e+215</v>
-      </c>
-      <c r="CB29" t="n">
-        <v>144.17</v>
-      </c>
-      <c r="CC29" t="n">
+      <c r="CF29" t="n">
+        <v>144.169</v>
+      </c>
+      <c r="CG29" t="n">
         <v>-2.169322630266425e+215</v>
       </c>
-      <c r="CD29" t="n">
-        <v>74.428</v>
-      </c>
-      <c r="CE29" t="n">
-        <v>1.15194516407492e+122</v>
-      </c>
-      <c r="CF29" t="n">
+      <c r="CH29" t="n">
         <v>17.721</v>
       </c>
-      <c r="CG29" t="n">
+      <c r="CI29" t="n">
         <v>-1.15194516407492e+122</v>
-      </c>
-      <c r="CH29" t="n">
-        <v>67.61199999999999</v>
-      </c>
-      <c r="CI29" t="n">
-        <v>2.415658468990249e+118</v>
       </c>
       <c r="CJ29" t="n">
         <v>16.098</v>
@@ -7394,22 +7394,22 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0.095</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.2</v>
+        <v>0.114</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>0.285</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>0.095</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>0.19</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>0.095</v>
       </c>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
@@ -7444,10 +7444,10 @@
         <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>1</v>
+        <v>0.095</v>
       </c>
       <c r="AI30" t="n">
-        <v>8.199999999999999</v>
+        <v>0.7789999999999999</v>
       </c>
       <c r="AJ30" t="n">
         <v>0.122</v>
@@ -7550,46 +7550,46 @@
         <v>1.192</v>
       </c>
       <c r="BV30" t="n">
-        <v>20.6</v>
+        <v>1.957</v>
       </c>
       <c r="BW30" t="n">
         <v>3.18496228464976e+38</v>
       </c>
       <c r="BX30" t="n">
+        <v>68.866</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>4.204366641899764e+191</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>10.249</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>4.730415746280854e+109</v>
+      </c>
+      <c r="CB30" t="n">
+        <v>8.619</v>
+      </c>
+      <c r="CC30" t="n">
+        <v>4.748509812180844e+101</v>
+      </c>
+      <c r="CD30" t="n">
         <v>2.512</v>
       </c>
-      <c r="BY30" t="n">
+      <c r="CE30" t="n">
         <v>-3.18496228464976e+38</v>
       </c>
-      <c r="BZ30" t="n">
-        <v>724.908</v>
-      </c>
-      <c r="CA30" t="n">
-        <v>4.204366641899764e+191</v>
-      </c>
-      <c r="CB30" t="n">
+      <c r="CF30" t="n">
         <v>88.40300000000001</v>
       </c>
-      <c r="CC30" t="n">
+      <c r="CG30" t="n">
         <v>-4.204366641899764e+191</v>
       </c>
-      <c r="CD30" t="n">
-        <v>107.881</v>
-      </c>
-      <c r="CE30" t="n">
-        <v>4.730415746280854e+109</v>
-      </c>
-      <c r="CF30" t="n">
-        <v>13.156</v>
-      </c>
-      <c r="CG30" t="n">
+      <c r="CH30" t="n">
+        <v>13.157</v>
+      </c>
+      <c r="CI30" t="n">
         <v>-4.730415746280854e+109</v>
-      </c>
-      <c r="CH30" t="n">
-        <v>90.72199999999999</v>
-      </c>
-      <c r="CI30" t="n">
-        <v>4.748509812180844e+101</v>
       </c>
       <c r="CJ30" t="n">
         <v>11.064</v>
